--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\Temp\Temp2_作成ドキュメント.zip\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32607455-0C64-40AB-A949-7AFF960445AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD08C1A-A752-4304-844F-6486F321AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -307,8 +307,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295400" y="1590675"/>
-          <a:ext cx="11420475" cy="3057525"/>
+          <a:off x="1188720" y="1564005"/>
+          <a:ext cx="10224135" cy="2988945"/>
           <a:chOff x="1076325" y="1600200"/>
           <a:chExt cx="11420475" cy="3057525"/>
         </a:xfrm>
@@ -645,7 +645,10 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・判別機能 </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1621,14 +1624,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1654,19 +1657,19 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1690,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,7 +1704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD08C1A-A752-4304-844F-6486F321AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954A9FD-C377-4CAD-AA96-05F95DEF6267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954A9FD-C377-4CAD-AA96-05F95DEF6267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCEA2D4-51D9-4D50-A0AB-6B262CBE55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCEA2D4-51D9-4D50-A0AB-6B262CBE55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C7EA3-C57F-48EF-9881-8492CA8D38BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -89,6 +89,13 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ページ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,8 +314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1188720" y="1564005"/>
-          <a:ext cx="10224135" cy="2988945"/>
+          <a:off x="1295400" y="1590675"/>
+          <a:ext cx="11420475" cy="3057525"/>
           <a:chOff x="1076325" y="1600200"/>
           <a:chExt cx="11420475" cy="3057525"/>
         </a:xfrm>
@@ -507,7 +514,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>講師の時は掲示板に飛べない仕様の疑似ページへ</a:t>
+              <a:t>講師の時は掲示板に飛べない仕様のメニューページへ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -604,7 +611,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4191000" y="1619250"/>
-            <a:ext cx="2190750" cy="762000"/>
+            <a:ext cx="2190750" cy="838200"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -631,7 +638,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>疑似ページ</a:t>
+              <a:t>メニューページ</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -648,6 +655,14 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・判別機能 </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・パスワード変更</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -945,6 +960,682 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="グループ化 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33882107-A87C-4E7B-A674-F8EAB32BD9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1143000" y="5429250"/>
+          <a:ext cx="11420475" cy="3324225"/>
+          <a:chOff x="1076325" y="1600200"/>
+          <a:chExt cx="11420475" cy="3324225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF96AB5-A114-4F58-9A74-C79F188CACDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="1600200"/>
+            <a:ext cx="2190750" cy="800100"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログインページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・ログイン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログアウト機能</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCDEC9B-677C-4EB7-BA98-A8023CCA7DA0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3276600" y="1876425"/>
+            <a:ext cx="923925" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622B0A1C-488E-4E0E-8941-D4BFD3F132F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9372600" y="1885950"/>
+            <a:ext cx="923925" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D7C0F2-4442-4335-9E19-436BBB7C2EC7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7172325" y="1647824"/>
+            <a:ext cx="2190750" cy="1114426"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>閲覧ページ（見出しが並ぶ）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・メニューバー機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　返信含めた更新日付順</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　元の投稿に対しての</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　　　　　　　リアクション数順</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FBA468-515B-4657-A160-2E4B584C5C47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4191000" y="1619250"/>
+            <a:ext cx="2190750" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>管理メニューページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・ユーザー管理</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・掲示板に飛ぶ機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B9D236-F201-4B91-8841-649375E6674D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10306050" y="1666873"/>
+            <a:ext cx="2190750" cy="1162052"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>見出しに対応した詳細ページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・削除機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・閲覧機能（詳細内容を表示）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC5B84-AAC2-44CD-9D60-A67A019F4946}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7029449" y="4029075"/>
+            <a:ext cx="2447925" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>投稿ページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・投稿機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>（お知らせなど</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FA270F-02A6-4CD4-8BA8-354CABAFF7E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6362700" y="1909762"/>
+            <a:ext cx="781050" cy="4764"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E225DE-B633-47F3-A0AD-8393A3A8369A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8267700" y="6619875"/>
+          <a:ext cx="14288" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EEE3C1-3318-4893-8DBD-2D9909C4380D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5105400" y="6200775"/>
+          <a:ext cx="9525" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5B73ED-B6EE-4C69-9ED4-4EB6D372723F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="7267575"/>
+          <a:ext cx="2447925" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー管理ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1618,20 +2309,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +2334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1657,21 +2348,26 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +2386,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,7 +2400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C7EA3-C57F-48EF-9881-8492CA8D38BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA1393-4F8F-437C-B107-62C506E4F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -230,15 +230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:colOff>197513</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>47627</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>266584</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -251,18 +251,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="25" idx="2"/>
           <a:endCxn id="28" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9696450" y="3133723"/>
-          <a:ext cx="1895477" cy="1200151"/>
+        <a:xfrm rot="5400000">
+          <a:off x="9118620" y="2906828"/>
+          <a:ext cx="1039792" cy="1897871"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 251"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -291,15 +290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -314,10 +313,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295400" y="1590675"/>
-          <a:ext cx="11420475" cy="3057525"/>
+          <a:off x="1166707" y="1580092"/>
+          <a:ext cx="10576560" cy="3192567"/>
           <a:chOff x="1076325" y="1600200"/>
-          <a:chExt cx="11420475" cy="3057525"/>
+          <a:chExt cx="11811204" cy="3232908"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -378,14 +377,6 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・ログイン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>/</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ログアウト機能</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -532,8 +523,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7172325" y="1647824"/>
-            <a:ext cx="2190750" cy="1114426"/>
+            <a:off x="7034875" y="1647824"/>
+            <a:ext cx="2328199" cy="1704266"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -593,6 +584,14 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>　　　　　　　リアクション数順</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・検索機能（文字による検索）</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -611,7 +610,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4191000" y="1619250"/>
-            <a:ext cx="2190750" cy="838200"/>
+            <a:ext cx="2190750" cy="1150181"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -664,6 +663,27 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・パスワード変更</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ログアウト機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -723,8 +743,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10306050" y="1666873"/>
-            <a:ext cx="2190750" cy="1447801"/>
+            <a:off x="10306051" y="1666873"/>
+            <a:ext cx="2581478" cy="1711288"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -760,6 +780,14 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・返信機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・検閲機能（返信用）</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -818,7 +846,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7029449" y="4029075"/>
-            <a:ext cx="2447925" cy="628650"/>
+            <a:ext cx="2447925" cy="804033"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -854,6 +882,14 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・投稿機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・検閲機能</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -870,9 +906,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6362700" y="1909762"/>
-            <a:ext cx="781050" cy="4764"/>
+          <a:xfrm>
+            <a:off x="6362700" y="1914527"/>
+            <a:ext cx="662719" cy="6112"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -905,15 +941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>271948</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>320694</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>151726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -930,9 +966,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8472487" y="2752725"/>
-          <a:ext cx="14288" cy="1266825"/>
+        <a:xfrm>
+          <a:off x="7544815" y="3310122"/>
+          <a:ext cx="48746" cy="668537"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -965,15 +1001,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>154517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68724</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -988,10 +1024,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1143000" y="5429250"/>
-          <a:ext cx="11420475" cy="3324225"/>
-          <a:chOff x="1076325" y="1600200"/>
-          <a:chExt cx="11420475" cy="3324225"/>
+          <a:off x="1062567" y="5336117"/>
+          <a:ext cx="10274300" cy="1776874"/>
+          <a:chOff x="1104690" y="1565919"/>
+          <a:chExt cx="11473660" cy="1798633"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1007,7 +1043,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1076325" y="1600200"/>
+            <a:off x="1104690" y="1565919"/>
             <a:ext cx="2190750" cy="800100"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1044,14 +1080,6 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・ログイン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>/</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ログアウト機能</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1152,8 +1180,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7172325" y="1647824"/>
-            <a:ext cx="2190750" cy="1114426"/>
+            <a:off x="7066077" y="1647824"/>
+            <a:ext cx="2296999" cy="1716728"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1214,69 +1242,27 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>　　　　　　　リアクション数順</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="角丸四角形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FBA468-515B-4657-A160-2E4B584C5C47}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4191000" y="1619250"/>
-            <a:ext cx="2190750" cy="762000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>管理メニューページ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・ユーザー管理</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・掲示板に飛ぶ機能</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・検索機能（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>文字による検索）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1294,7 +1280,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10306050" y="1666873"/>
-            <a:ext cx="2190750" cy="1162052"/>
+            <a:ext cx="2272300" cy="1162052"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1339,76 +1325,14 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・閲覧機能（詳細内容を表示）</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="角丸四角形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC5B84-AAC2-44CD-9D60-A67A019F4946}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7029449" y="4029075"/>
-            <a:ext cx="2447925" cy="895350"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>投稿ページ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・投稿機能</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>（お知らせなど</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・検索機能（文字による検索）</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1424,9 +1348,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6362700" y="1909762"/>
-            <a:ext cx="781050" cy="4764"/>
+          <a:xfrm>
+            <a:off x="6362700" y="1914526"/>
+            <a:ext cx="712831" cy="9205"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1453,76 +1377,102 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FBA468-515B-4657-A160-2E4B584C5C47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4191000" y="1619249"/>
+            <a:ext cx="2190750" cy="1195795"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>管理メニューページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・ユーザー管理</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・掲示板に飛ぶ機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ログアウト機能</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E225DE-B633-47F3-A0AD-8393A3A8369A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8267700" y="6619875"/>
-          <a:ext cx="14288" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>419101</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1538,9 +1488,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5105400" y="6200775"/>
-          <a:ext cx="9525" cy="1047750"/>
+        <a:xfrm>
+          <a:off x="4622800" y="6561667"/>
+          <a:ext cx="21168" cy="606425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1572,15 +1522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>321734</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1595,8 +1545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057650" y="7267575"/>
-          <a:ext cx="2447925" cy="895350"/>
+          <a:off x="3259667" y="7187141"/>
+          <a:ext cx="4851400" cy="1355725"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1631,7 +1581,39 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
+            <a:t>・匿名から実名に変える機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　（自動的：カウントは二つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　・ペナルティを与えるためのカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　・ペナルティ自体のカウント（カウントダウン時間を自動的に増やすため）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2311,18 +2293,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2348,24 +2330,24 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2368,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,7 +2382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA1393-4F8F-437C-B107-62C506E4F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5805446-A167-4031-B32B-920FEBB5967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24" yWindow="108" windowWidth="13248" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="8">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -313,8 +324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1166707" y="1580092"/>
-          <a:ext cx="10576560" cy="3192567"/>
+          <a:off x="1169126" y="1538968"/>
+          <a:ext cx="10562045" cy="3077662"/>
           <a:chOff x="1076325" y="1600200"/>
           <a:chExt cx="11811204" cy="3232908"/>
         </a:xfrm>
@@ -478,7 +489,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4152900" y="2886074"/>
-            <a:ext cx="2190750" cy="561975"/>
+            <a:ext cx="2190750" cy="836714"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -507,6 +518,19 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>講師の時は掲示板に飛べない仕様のメニューページへ</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・ログアウト機能</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>	</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -610,7 +634,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4191000" y="1619250"/>
-            <a:ext cx="2190750" cy="1150181"/>
+            <a:ext cx="2190750" cy="1188753"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1024,8 +1048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1062567" y="5336117"/>
-          <a:ext cx="10274300" cy="1776874"/>
+          <a:off x="1064986" y="5161946"/>
+          <a:ext cx="10259785" cy="1710349"/>
           <a:chOff x="1104690" y="1565919"/>
           <a:chExt cx="11473660" cy="1798633"/>
         </a:xfrm>
@@ -1615,6 +1639,138 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>　）</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B497D2D-5A0E-41C0-B087-15F196DC8C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5865147" y="1075436"/>
+          <a:ext cx="995105" cy="511627"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97597</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC74E4AA-5464-42F7-A710-B6CCB3B10189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6618513" y="435428"/>
+          <a:ext cx="1959055" cy="796535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード変更ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・パスワード変更機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2293,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面遷移図_0604.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5805446-A167-4031-B32B-920FEBB5967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8455E5-B493-44D4-87C5-FEE130296DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="108" windowWidth="13248" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="144" windowWidth="18948" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1553,8 +1553,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1569,8 +1569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3259667" y="7187141"/>
-          <a:ext cx="4851400" cy="1355725"/>
+          <a:off x="3249991" y="6946445"/>
+          <a:ext cx="4848980" cy="1500869"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2450,7 +2450,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
